--- a/results/I1_R2_res.xlsx
+++ b/results/I1_R2_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9496.310999999998</v>
+        <v>9496.310999999907</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>300.0810000896454</v>
+        <v>6000.18799996376</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.9999999999990514</v>
+        <v>0.9876756060182617</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12607.915</v>
+        <v>14417.393</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>9677.646000000002</v>
+        <v>11487.124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3540</v>
+        <v>3539.999999999907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1081.101188</v>
+        <v>1081.101187999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1338.072276</v>
+        <v>1309.404408000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>775.8862960000001</v>
+        <v>775.886295999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>838.0848760000003</v>
+        <v>838.0848759999992</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1271.750262</v>
+        <v>1374.74812</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1144.49235</v>
+        <v>1144.492349999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1020.868058</v>
+        <v>1020.868057999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>898.3863900000001</v>
+        <v>898.386389999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1209.87879</v>
+        <v>1209.878789999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1217,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1315,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1427,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1441,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>412</v>
+        <v>411.9999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>413</v>
+        <v>412.9999999999801</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>414</v>
+        <v>413.9999999999873</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>412</v>
+        <v>411.9999999999873</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>760</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>759</v>
+        <v>663.9999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>760</v>
+        <v>678.9999999999801</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>748</v>
+        <v>653.9999999999869</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1650,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>743</v>
+        <v>655.9999999999873</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>38.99999999999946</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>47.99999999999982</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>40.99999999999946</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1705,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>42.00000000000085</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>83</v>
+        <v>82.99999999999946</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1727,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>88.99999999999983</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>86</v>
+        <v>85.99999999999946</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1760,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>90.00000000000085</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>673</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1782,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>662</v>
+        <v>758.9999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>668</v>
+        <v>759.9999999999801</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>677</v>
+        <v>747.9999999999869</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1815,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>653</v>
+        <v>742.9999999999873</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>459</v>
+        <v>458.9999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1848,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>477</v>
+        <v>476.9999999999801</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>474</v>
+        <v>473.9999999999873</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>468</v>
+        <v>467.9999999999873</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>236</v>
+        <v>235.9999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1947,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>341</v>
+        <v>340.9999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>133</v>
+        <v>132.9999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>567</v>
+        <v>566.9999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>587</v>
+        <v>586.9999999999801</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>583</v>
+        <v>582.9999999999873</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>566</v>
+        <v>565.9999999999873</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>759</v>
+        <v>758.9999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>760</v>
+        <v>759.9999999999801</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>748</v>
+        <v>747.9999999999869</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>743</v>
+        <v>742.9999999999873</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>359</v>
+        <v>358.9999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>360</v>
+        <v>359.9999999999801</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>348</v>
+        <v>347.9999999999869</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>343</v>
+        <v>342.9999999999873</v>
       </c>
     </row>
     <row r="7" spans="1:3">
